--- a/evaluation/results/hybrid/autoencoder/isolation_forest/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/isolation_forest/split_4/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.902135231316726</v>
+        <v>0.4483985765124555</v>
       </c>
       <c r="C2">
-        <v>0.1142857142857143</v>
+        <v>0.07530120481927711</v>
       </c>
       <c r="D2">
-        <v>0.1428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="E2">
-        <v>0.126984126984127</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="F2">
-        <v>0.1360544217687075</v>
+        <v>0.2815315315315315</v>
       </c>
       <c r="G2">
-        <v>0.1414965986394558</v>
+        <v>0.6298449612403101</v>
       </c>
       <c r="H2">
-        <v>0.542402354200107</v>
+        <v>0.7532771535580525</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="K2">
-        <v>503</v>
+        <v>227</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9544592030360531</v>
+        <v>0.9869565217391304</v>
       </c>
       <c r="C2">
-        <v>0.9419475655430711</v>
+        <v>0.4250936329588015</v>
       </c>
       <c r="D2">
-        <v>0.9481621112158342</v>
+        <v>0.5942408376963351</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.1142857142857143</v>
+        <v>0.07530120481927711</v>
       </c>
       <c r="C3">
-        <v>0.1428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D3">
-        <v>0.126984126984127</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.902135231316726</v>
+        <v>0.4483985765124555</v>
       </c>
       <c r="C4">
-        <v>0.902135231316726</v>
+        <v>0.4483985765124555</v>
       </c>
       <c r="D4">
-        <v>0.902135231316726</v>
+        <v>0.4483985765124555</v>
       </c>
       <c r="E4">
-        <v>0.902135231316726</v>
+        <v>0.4483985765124555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5343724586608837</v>
+        <v>0.5311288632792037</v>
       </c>
       <c r="C5">
-        <v>0.542402354200107</v>
+        <v>0.6589753879079722</v>
       </c>
       <c r="D5">
-        <v>0.5375731190999806</v>
+        <v>0.366564863292612</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9126000256605914</v>
+        <v>0.9415359721417002</v>
       </c>
       <c r="C6">
-        <v>0.902135231316726</v>
+        <v>0.4483985765124555</v>
       </c>
       <c r="D6">
-        <v>0.9072493290832936</v>
+        <v>0.5715542637343983</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>503</v>
+        <v>227</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
